--- a/data/investing_source_example.xlsx
+++ b/data/investing_source_example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Robin/Documents/personal_finance/Investing/Dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Robin/Documents/personal_finance/Investing/Dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8A7E03-0B52-4642-9C21-166048B83A67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A680D8-A81C-CD4A-A0F7-77099958F358}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{9686E4FC-88CA-2049-8D43-579C3AB447BB}"/>
+    <workbookView xWindow="48000" yWindow="460" windowWidth="19200" windowHeight="23540" xr2:uid="{9686E4FC-88CA-2049-8D43-579C3AB447BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Stocks" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Budget</t>
   </si>
@@ -94,12 +94,6 @@
     <t>BLDP</t>
   </si>
   <si>
-    <t>ETF</t>
-  </si>
-  <si>
-    <t>Sector</t>
-  </si>
-  <si>
     <t>Tech</t>
   </si>
   <si>
@@ -121,7 +115,16 @@
     <t>#ff9900</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>stocks</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
   </si>
 </sst>
 </file>
@@ -477,7 +480,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,116 +514,49 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44018</v>
+        <v>44070</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>391</v>
+        <v>25.6</v>
       </c>
       <c r="F2">
-        <v>343.32</v>
+        <v>25.6</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="H2">
-        <v>0.5</v>
+        <v>2.11</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>44070</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>25.6</v>
-      </c>
-      <c r="F3">
-        <v>25.6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3">
-        <v>2.11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>44062</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>440</v>
-      </c>
-      <c r="F4">
-        <v>372.52</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4">
-        <v>0.5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -630,6 +566,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -638,7 +575,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -650,7 +587,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1410</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -697,10 +634,10 @@
         <v>44062</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -718,13 +655,13 @@
         <v>0.5</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -747,13 +684,13 @@
         <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H7">
         <v>0.3</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
@@ -785,13 +722,13 @@
         <v>0.5</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
